--- a/res/ScopeFileStructure.xlsx
+++ b/res/ScopeFileStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37381e97b004bd73/Documents/Projects/CellScope/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="11_AD4DA82427541F7ACA7EB883788C3FC26BE8DE1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2061140A-B4F2-4C16-9A30-723FD73011B0}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="11_AD4DA82427541F7ACA7EB883788C3FC26BE8DE1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E963413-58FA-4533-893E-53C37D45D4A6}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScopeFileStructure" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>MagicNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,10 @@
   </si>
   <si>
     <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1006,7 +1010,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1208,19 +1212,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>14</v>
@@ -1243,13 +1247,16 @@
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
